--- a/URI Design.xlsx
+++ b/URI Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\UserData\Desktop\db\KW_DB_VAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05524D0-7BED-4F1E-97A6-11CFCBC05760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1F362C-283F-4407-800B-26715EA11E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="6495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,102 @@
   </si>
   <si>
     <t>메인 인트로 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacc_recommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_search_hosp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_select_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftvacc_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacc_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side_effect_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify_personal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate_meetup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friends_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백신 추천 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백신 추천 처리 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 처리 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 인원 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 정보 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹원 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +165,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -95,8 +206,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -377,16 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="38.125" customWidth="1"/>
     <col min="4" max="4" width="46.375" customWidth="1"/>
   </cols>
@@ -416,9 +529,208 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/URI Design.xlsx
+++ b/URI Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\UserData\Desktop\db\KW_DB_VAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4-2\DB\KW_DB_VAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1F362C-283F-4407-800B-26715EA11E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4B8660-1D0F-43AC-BE80-676007EE6487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="-255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,78 @@
   </si>
   <si>
     <t>그룹원 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원 검색 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여백신 예약 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여백신 예약 처리 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증 처리 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부작용 통계 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 변경 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 변경 처리 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백신 예약일자 처리 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 처리 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 조회 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백신 통계 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백신 예약완료 처리 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vac(백신종류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital, vac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹원 목록 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group(그룹 종류)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +565,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,6 +622,9 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -561,6 +636,9 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -580,6 +658,9 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -588,6 +669,9 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -596,6 +680,9 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -604,6 +691,12 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -612,6 +705,9 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -620,6 +716,9 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -628,6 +727,9 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -636,6 +738,9 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -644,6 +749,9 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -652,41 +760,61 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -695,7 +823,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -706,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -717,7 +845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>

--- a/URI Design.xlsx
+++ b/URI Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4-2\DB\KW_DB_VAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asdfg\OneDrive\Documents\GitHub\KW_DB_VAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4B8660-1D0F-43AC-BE80-676007EE6487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17308C-5FB6-4FA1-B727-34CDFC410515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="-255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1068" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,62 @@
   </si>
   <si>
     <t>group(그룹 종류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 인원 계산 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응급실 병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상 반응 신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상 반응 신고 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation, vacc_dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vac, reservation, user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vac(백신종류), vacc_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacc_report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,21 +618,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="38.125" customWidth="1"/>
-    <col min="4" max="4" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" customWidth="1"/>
+    <col min="3" max="3" width="38.09765625" customWidth="1"/>
+    <col min="4" max="4" width="46.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -601,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -612,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -626,7 +682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -640,7 +696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -651,7 +707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -661,8 +717,11 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -672,8 +731,11 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -683,8 +745,11 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -698,7 +763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -709,7 +774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -720,7 +785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -730,8 +795,11 @@
       <c r="C13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -741,8 +809,11 @@
       <c r="C14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -752,8 +823,11 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -764,10 +838,10 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -777,8 +851,11 @@
       <c r="C17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -788,8 +865,11 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -799,8 +879,11 @@
       <c r="C19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,7 +897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -823,7 +906,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -834,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -844,8 +927,11 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -854,6 +940,59 @@
       </c>
       <c r="C24" t="s">
         <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
